--- a/data/rm_list.xlsx
+++ b/data/rm_list.xlsx
@@ -34,25 +34,25 @@
     <t>availability_score</t>
   </si>
   <si>
-    <t>Charlie</t>
+    <t>Ramesh</t>
   </si>
   <si>
     <t>insurance, loans, credit cards, personal banking</t>
   </si>
   <si>
-    <t>Goliath</t>
+    <t>Suresh</t>
   </si>
   <si>
     <t>investments, insurance</t>
   </si>
   <si>
-    <t>Emily</t>
+    <t>Ram</t>
   </si>
   <si>
     <t>loans, credit cards</t>
   </si>
   <si>
-    <t>Hank</t>
+    <t>Shyam</t>
   </si>
   <si>
     <t>personal banking, insurance</t>
@@ -80,7 +80,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
     </font>
@@ -452,12 +452,12 @@
     <col min="1" max="1" style="7" width="13.576428571428572" customWidth="1" bestFit="1"/>
     <col min="2" max="2" style="8" width="13.576428571428572" customWidth="1" bestFit="1"/>
     <col min="3" max="3" style="8" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="4" max="4" style="8" width="18.719285714285714" customWidth="1" bestFit="1"/>
-    <col min="5" max="5" style="7" width="39.86214285714286" customWidth="1" bestFit="1"/>
+    <col min="4" max="4" style="8" width="23.14785714285714" customWidth="1" bestFit="1"/>
+    <col min="5" max="5" style="7" width="44.86214285714286" customWidth="1" bestFit="1"/>
     <col min="6" max="6" style="9" width="30.862142857142857" customWidth="1" bestFit="1"/>
   </cols>
   <sheetData>
-    <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="19.5">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -477,15 +477,15 @@
         <v>5</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="19.5">
       <c r="A2" s="4" t="s">
         <v>6</v>
       </c>
       <c r="B2" s="5">
-        <v>41.8781</v>
+        <v>19.062085</v>
       </c>
       <c r="C2" s="5">
-        <v>-87.6298</v>
+        <v>72.865441</v>
       </c>
       <c r="D2" s="5">
         <v>0.3</v>
@@ -494,18 +494,18 @@
         <v>7</v>
       </c>
       <c r="F2" s="6">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="19.5">
       <c r="A3" s="4" t="s">
         <v>8</v>
       </c>
       <c r="B3" s="5">
-        <v>37.7749</v>
+        <v>19.1923717</v>
       </c>
       <c r="C3" s="5">
-        <v>-122.4194</v>
+        <v>72.94</v>
       </c>
       <c r="D3" s="5">
         <v>0.5</v>
@@ -517,15 +517,15 @@
         <v>8</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="19.5">
       <c r="A4" s="4" t="s">
         <v>10</v>
       </c>
       <c r="B4" s="5">
-        <v>34.0522</v>
+        <v>19.12</v>
       </c>
       <c r="C4" s="5">
-        <v>-118.2437</v>
+        <v>72.8</v>
       </c>
       <c r="D4" s="5">
         <v>0.4</v>
@@ -534,18 +534,18 @@
         <v>11</v>
       </c>
       <c r="F4" s="6">
-        <v>7</v>
+        <v>2</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="19.5">
       <c r="A5" s="4" t="s">
         <v>12</v>
       </c>
       <c r="B5" s="5">
-        <v>40.7128</v>
+        <v>19.06</v>
       </c>
       <c r="C5" s="5">
-        <v>-74.006</v>
+        <v>72.98</v>
       </c>
       <c r="D5" s="5">
         <v>0.6</v>
